--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1557.340094453418</v>
+        <v>1792.197285134074</v>
       </c>
       <c r="AB2" t="n">
-        <v>2130.821422227178</v>
+        <v>2452.16339168445</v>
       </c>
       <c r="AC2" t="n">
-        <v>1927.458816316465</v>
+        <v>2218.132359215021</v>
       </c>
       <c r="AD2" t="n">
-        <v>1557340.094453418</v>
+        <v>1792197.285134074</v>
       </c>
       <c r="AE2" t="n">
-        <v>2130821.422227178</v>
+        <v>2452163.39168445</v>
       </c>
       <c r="AF2" t="n">
         <v>3.260581446881128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.13802083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1927458.816316465</v>
+        <v>2218132.359215021</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>801.3294114070078</v>
+        <v>957.9115863138006</v>
       </c>
       <c r="AB3" t="n">
-        <v>1096.41425284567</v>
+        <v>1310.656892471164</v>
       </c>
       <c r="AC3" t="n">
-        <v>991.7740153811471</v>
+        <v>1185.569638172217</v>
       </c>
       <c r="AD3" t="n">
-        <v>801329.4114070078</v>
+        <v>957911.5863138007</v>
       </c>
       <c r="AE3" t="n">
-        <v>1096414.25284567</v>
+        <v>1310656.892471164</v>
       </c>
       <c r="AF3" t="n">
         <v>5.105552227877894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.7421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>991774.0153811472</v>
+        <v>1185569.638172217</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>673.1325617806795</v>
+        <v>800.3501839062844</v>
       </c>
       <c r="AB4" t="n">
-        <v>921.0096675410773</v>
+        <v>1095.074430578712</v>
       </c>
       <c r="AC4" t="n">
-        <v>833.1097975161432</v>
+        <v>990.5620638708947</v>
       </c>
       <c r="AD4" t="n">
-        <v>673132.5617806795</v>
+        <v>800350.1839062844</v>
       </c>
       <c r="AE4" t="n">
-        <v>921009.6675410774</v>
+        <v>1095074.430578712</v>
       </c>
       <c r="AF4" t="n">
         <v>5.80612521749982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>833109.7975161432</v>
+        <v>990562.0638708947</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>608.0352085632003</v>
+        <v>735.1844998512436</v>
       </c>
       <c r="AB5" t="n">
-        <v>831.9405969763866</v>
+        <v>1005.911866747525</v>
       </c>
       <c r="AC5" t="n">
-        <v>752.5413540369208</v>
+        <v>909.9090499913127</v>
       </c>
       <c r="AD5" t="n">
-        <v>608035.2085632003</v>
+        <v>735184.4998512436</v>
       </c>
       <c r="AE5" t="n">
-        <v>831940.5969763866</v>
+        <v>1005911.866747525</v>
       </c>
       <c r="AF5" t="n">
         <v>6.200046850342983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>752541.3540369208</v>
+        <v>909909.0499913127</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>580.0209018203284</v>
+        <v>707.2375129160761</v>
       </c>
       <c r="AB6" t="n">
-        <v>793.6101865868017</v>
+        <v>967.6735662887817</v>
       </c>
       <c r="AC6" t="n">
-        <v>717.8691442178489</v>
+        <v>875.3201592605599</v>
       </c>
       <c r="AD6" t="n">
-        <v>580020.9018203284</v>
+        <v>707237.5129160761</v>
       </c>
       <c r="AE6" t="n">
-        <v>793610.1865868017</v>
+        <v>967673.5662887817</v>
       </c>
       <c r="AF6" t="n">
         <v>6.37000691836895e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.64192708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>717869.1442178489</v>
+        <v>875320.1592605598</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>550.3086514091526</v>
+        <v>677.4910970861197</v>
       </c>
       <c r="AB7" t="n">
-        <v>752.9565747622552</v>
+        <v>926.9732078309876</v>
       </c>
       <c r="AC7" t="n">
-        <v>681.0954560481347</v>
+        <v>838.5041858906658</v>
       </c>
       <c r="AD7" t="n">
-        <v>550308.6514091527</v>
+        <v>677491.0970861197</v>
       </c>
       <c r="AE7" t="n">
-        <v>752956.5747622552</v>
+        <v>926973.2078309875</v>
       </c>
       <c r="AF7" t="n">
         <v>6.545511782940444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.97786458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>681095.4560481347</v>
+        <v>838504.1858906657</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>534.5430321346068</v>
+        <v>651.9038021523018</v>
       </c>
       <c r="AB8" t="n">
-        <v>731.3853589407873</v>
+        <v>891.9635420707546</v>
       </c>
       <c r="AC8" t="n">
-        <v>661.5829667892762</v>
+        <v>806.8357934942147</v>
       </c>
       <c r="AD8" t="n">
-        <v>534543.0321346069</v>
+        <v>651903.8021523018</v>
       </c>
       <c r="AE8" t="n">
-        <v>731385.3589407874</v>
+        <v>891963.5420707546</v>
       </c>
       <c r="AF8" t="n">
         <v>6.679551212475817e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.49609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>661582.9667892761</v>
+        <v>806835.7934942148</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>525.4784386315015</v>
+        <v>642.8392086491964</v>
       </c>
       <c r="AB9" t="n">
-        <v>718.9827822081968</v>
+        <v>879.5609653381641</v>
       </c>
       <c r="AC9" t="n">
-        <v>650.3640745729185</v>
+        <v>795.6169012778571</v>
       </c>
       <c r="AD9" t="n">
-        <v>525478.4386315015</v>
+        <v>642839.2086491964</v>
       </c>
       <c r="AE9" t="n">
-        <v>718982.7822081968</v>
+        <v>879560.9653381641</v>
       </c>
       <c r="AF9" t="n">
         <v>6.740543974476623e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.28776041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>650364.0745729185</v>
+        <v>795616.9012778571</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>502.2061399065004</v>
+        <v>619.6342297318997</v>
       </c>
       <c r="AB10" t="n">
-        <v>687.1405963912915</v>
+        <v>847.8108894521002</v>
       </c>
       <c r="AC10" t="n">
-        <v>621.56086227959</v>
+        <v>766.8970080728477</v>
       </c>
       <c r="AD10" t="n">
-        <v>502206.1399065003</v>
+        <v>619634.2297318997</v>
       </c>
       <c r="AE10" t="n">
-        <v>687140.5963912915</v>
+        <v>847810.8894521003</v>
       </c>
       <c r="AF10" t="n">
         <v>6.832394734643847e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.96875</v>
       </c>
       <c r="AH10" t="n">
-        <v>621560.86227959</v>
+        <v>766897.0080728477</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>492.6544350894611</v>
+        <v>610.0825249148605</v>
       </c>
       <c r="AB11" t="n">
-        <v>674.0715324691422</v>
+        <v>834.7418255299509</v>
       </c>
       <c r="AC11" t="n">
-        <v>609.7390914756243</v>
+        <v>755.0752372688819</v>
       </c>
       <c r="AD11" t="n">
-        <v>492654.4350894611</v>
+        <v>610082.5249148605</v>
       </c>
       <c r="AE11" t="n">
-        <v>674071.5324691422</v>
+        <v>834741.8255299509</v>
       </c>
       <c r="AF11" t="n">
         <v>6.878922810004149e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.81901041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>609739.0914756242</v>
+        <v>755075.2372688819</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>492.5689764556142</v>
+        <v>609.9970662810135</v>
       </c>
       <c r="AB12" t="n">
-        <v>673.9546041961439</v>
+        <v>834.6248972569527</v>
       </c>
       <c r="AC12" t="n">
-        <v>609.633322672891</v>
+        <v>754.9694684661487</v>
       </c>
       <c r="AD12" t="n">
-        <v>492568.9764556142</v>
+        <v>609997.0662810135</v>
       </c>
       <c r="AE12" t="n">
-        <v>673954.6041961439</v>
+        <v>834624.8972569527</v>
       </c>
       <c r="AF12" t="n">
         <v>6.883503294106976e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.79947916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>609633.3226728911</v>
+        <v>754969.4684661487</v>
       </c>
     </row>
     <row r="13">
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>493.0643089947403</v>
+        <v>610.4923988201397</v>
       </c>
       <c r="AB13" t="n">
-        <v>674.6323400287057</v>
+        <v>835.3026330895144</v>
       </c>
       <c r="AC13" t="n">
-        <v>610.2463763488012</v>
+        <v>755.5825221420589</v>
       </c>
       <c r="AD13" t="n">
-        <v>493064.3089947402</v>
+        <v>610492.3988201397</v>
       </c>
       <c r="AE13" t="n">
-        <v>674632.3400287057</v>
+        <v>835302.6330895144</v>
       </c>
       <c r="AF13" t="n">
         <v>6.887601621988453e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>610246.3763488012</v>
+        <v>755582.5221420589</v>
       </c>
     </row>
   </sheetData>
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1132.044486371619</v>
+        <v>1335.301853105108</v>
       </c>
       <c r="AB2" t="n">
-        <v>1548.913208531639</v>
+        <v>1827.018904778555</v>
       </c>
       <c r="AC2" t="n">
-        <v>1401.08710582272</v>
+        <v>1652.650784743626</v>
       </c>
       <c r="AD2" t="n">
-        <v>1132044.486371619</v>
+        <v>1335301.853105108</v>
       </c>
       <c r="AE2" t="n">
-        <v>1548913.208531639</v>
+        <v>1827018.904778555</v>
       </c>
       <c r="AF2" t="n">
         <v>4.233202988694635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.56640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1401087.10582272</v>
+        <v>1652650.784743626</v>
       </c>
     </row>
     <row r="3">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.3353798938189</v>
+        <v>819.4079665001746</v>
       </c>
       <c r="AB3" t="n">
-        <v>922.6554163480648</v>
+        <v>1121.150129493702</v>
       </c>
       <c r="AC3" t="n">
-        <v>834.5984783668146</v>
+        <v>1014.149134678912</v>
       </c>
       <c r="AD3" t="n">
-        <v>674335.3798938189</v>
+        <v>819407.9665001746</v>
       </c>
       <c r="AE3" t="n">
-        <v>922655.4163480648</v>
+        <v>1121150.129493702</v>
       </c>
       <c r="AF3" t="n">
         <v>6.042232531096666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.42447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>834598.4783668146</v>
+        <v>1014149.134678912</v>
       </c>
     </row>
     <row r="4">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>576.1330672819415</v>
+        <v>701.980206233347</v>
       </c>
       <c r="AB4" t="n">
-        <v>788.2906798522259</v>
+        <v>960.4802873494699</v>
       </c>
       <c r="AC4" t="n">
-        <v>713.0573237400465</v>
+        <v>868.8133967673855</v>
       </c>
       <c r="AD4" t="n">
-        <v>576133.0672819415</v>
+        <v>701980.206233347</v>
       </c>
       <c r="AE4" t="n">
-        <v>788290.6798522259</v>
+        <v>960480.28734947</v>
       </c>
       <c r="AF4" t="n">
         <v>6.70881428286831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>713057.3237400465</v>
+        <v>868813.3967673855</v>
       </c>
     </row>
     <row r="5">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>545.8572648843978</v>
+        <v>671.6702384170223</v>
       </c>
       <c r="AB5" t="n">
-        <v>746.8659913377719</v>
+        <v>919.0088522017681</v>
       </c>
       <c r="AC5" t="n">
-        <v>675.5861493574965</v>
+        <v>831.2999371846556</v>
       </c>
       <c r="AD5" t="n">
-        <v>545857.2648843977</v>
+        <v>671670.2384170224</v>
       </c>
       <c r="AE5" t="n">
-        <v>746865.9913377719</v>
+        <v>919008.8522017682</v>
       </c>
       <c r="AF5" t="n">
         <v>6.931447839851004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.77864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>675586.1493574965</v>
+        <v>831299.9371846556</v>
       </c>
     </row>
     <row r="6">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>505.3106126345903</v>
+        <v>621.4772024358876</v>
       </c>
       <c r="AB6" t="n">
-        <v>691.3882729375346</v>
+        <v>850.3325260119137</v>
       </c>
       <c r="AC6" t="n">
-        <v>625.4031465379112</v>
+        <v>769.1779831785319</v>
       </c>
       <c r="AD6" t="n">
-        <v>505310.6126345902</v>
+        <v>621477.2024358877</v>
       </c>
       <c r="AE6" t="n">
-        <v>691388.2729375346</v>
+        <v>850332.5260119138</v>
       </c>
       <c r="AF6" t="n">
         <v>7.250626280548942e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.68489583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>625403.1465379111</v>
+        <v>769177.9831785319</v>
       </c>
     </row>
     <row r="7">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>486.9932901445148</v>
+        <v>603.0583947193269</v>
       </c>
       <c r="AB7" t="n">
-        <v>666.3257042033782</v>
+        <v>825.1311007136682</v>
       </c>
       <c r="AC7" t="n">
-        <v>602.7325141882066</v>
+        <v>746.3817465403281</v>
       </c>
       <c r="AD7" t="n">
-        <v>486993.2901445148</v>
+        <v>603058.3947193269</v>
       </c>
       <c r="AE7" t="n">
-        <v>666325.7042033782</v>
+        <v>825131.1007136682</v>
       </c>
       <c r="AF7" t="n">
         <v>7.424196044168151e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.13151041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>602732.5141882065</v>
+        <v>746381.7465403281</v>
       </c>
     </row>
     <row r="8">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>465.4741368886928</v>
+        <v>581.6065612712093</v>
       </c>
       <c r="AB8" t="n">
-        <v>636.8822493607234</v>
+        <v>795.7797558018547</v>
       </c>
       <c r="AC8" t="n">
-        <v>576.0991013515861</v>
+        <v>719.8316527920269</v>
       </c>
       <c r="AD8" t="n">
-        <v>465474.1368886929</v>
+        <v>581606.5612712094</v>
       </c>
       <c r="AE8" t="n">
-        <v>636882.2493607234</v>
+        <v>795779.7558018547</v>
       </c>
       <c r="AF8" t="n">
         <v>7.504650113930855e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.88411458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>576099.1013515862</v>
+        <v>719831.652792027</v>
       </c>
     </row>
     <row r="9">
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>461.8150018886457</v>
+        <v>577.9474262711623</v>
       </c>
       <c r="AB9" t="n">
-        <v>631.8756594240158</v>
+        <v>790.7731658651471</v>
       </c>
       <c r="AC9" t="n">
-        <v>571.5703333316449</v>
+        <v>715.3028847720857</v>
       </c>
       <c r="AD9" t="n">
-        <v>461815.0018886457</v>
+        <v>577947.4262711622</v>
       </c>
       <c r="AE9" t="n">
-        <v>631875.6594240158</v>
+        <v>790773.1658651471</v>
       </c>
       <c r="AF9" t="n">
         <v>7.536304174165361e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>571570.3333316449</v>
+        <v>715302.8847720857</v>
       </c>
     </row>
   </sheetData>
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>544.1094084644952</v>
+        <v>684.3059839151269</v>
       </c>
       <c r="AB2" t="n">
-        <v>744.4744970740782</v>
+        <v>936.2976366420235</v>
       </c>
       <c r="AC2" t="n">
-        <v>673.4228959498466</v>
+        <v>846.9387043028944</v>
       </c>
       <c r="AD2" t="n">
-        <v>544109.4084644952</v>
+        <v>684305.983915127</v>
       </c>
       <c r="AE2" t="n">
-        <v>744474.4970740782</v>
+        <v>936297.6366420235</v>
       </c>
       <c r="AF2" t="n">
         <v>8.435119397313232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.41796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>673422.8959498466</v>
+        <v>846938.7043028944</v>
       </c>
     </row>
     <row r="3">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.6286233652644</v>
+        <v>519.8944042419827</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.7354657940206</v>
+        <v>711.3424600062464</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.5059757252811</v>
+        <v>643.4529339986625</v>
       </c>
       <c r="AD3" t="n">
-        <v>407628.6233652644</v>
+        <v>519894.4042419826</v>
       </c>
       <c r="AE3" t="n">
-        <v>557735.4657940206</v>
+        <v>711342.4600062463</v>
       </c>
       <c r="AF3" t="n">
         <v>1.009011117779874e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.75651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>504505.9757252811</v>
+        <v>643452.9339986625</v>
       </c>
     </row>
     <row r="4">
@@ -6316,28 +6316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>403.6606418347459</v>
+        <v>515.9264227114642</v>
       </c>
       <c r="AB4" t="n">
-        <v>552.3062984089746</v>
+        <v>705.9132926212006</v>
       </c>
       <c r="AC4" t="n">
-        <v>499.5949604555797</v>
+        <v>638.5419187289613</v>
       </c>
       <c r="AD4" t="n">
-        <v>403660.6418347459</v>
+        <v>515926.4227114642</v>
       </c>
       <c r="AE4" t="n">
-        <v>552306.2984089747</v>
+        <v>705913.2926212007</v>
       </c>
       <c r="AF4" t="n">
         <v>1.016006633648445e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>499594.9604555797</v>
+        <v>638541.9187289613</v>
       </c>
     </row>
   </sheetData>
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.809604274246</v>
+        <v>862.9449656208255</v>
       </c>
       <c r="AB2" t="n">
-        <v>960.2468622226007</v>
+        <v>1180.71937240742</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.6022494070107</v>
+        <v>1068.033172654902</v>
       </c>
       <c r="AD2" t="n">
-        <v>701809.604274246</v>
+        <v>862944.9656208255</v>
       </c>
       <c r="AE2" t="n">
-        <v>960246.8622226007</v>
+        <v>1180719.37240742</v>
       </c>
       <c r="AF2" t="n">
         <v>6.491106874325996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>868602.2494070107</v>
+        <v>1068033.172654902</v>
       </c>
     </row>
     <row r="3">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>501.6787921700295</v>
+        <v>624.8507186137697</v>
       </c>
       <c r="AB3" t="n">
-        <v>686.4190559533118</v>
+        <v>854.9483196755222</v>
       </c>
       <c r="AC3" t="n">
-        <v>620.9081846483226</v>
+        <v>773.3532519731924</v>
       </c>
       <c r="AD3" t="n">
-        <v>501678.7921700295</v>
+        <v>624850.7186137697</v>
       </c>
       <c r="AE3" t="n">
-        <v>686419.0559533119</v>
+        <v>854948.3196755222</v>
       </c>
       <c r="AF3" t="n">
         <v>8.188015744802613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.3515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>620908.1846483226</v>
+        <v>773353.2519731924</v>
       </c>
     </row>
     <row r="4">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>445.4455106842632</v>
+        <v>559.2363522260099</v>
       </c>
       <c r="AB4" t="n">
-        <v>609.478199387196</v>
+        <v>765.1718488822419</v>
       </c>
       <c r="AC4" t="n">
-        <v>551.3104554457066</v>
+        <v>692.1449215503549</v>
       </c>
       <c r="AD4" t="n">
-        <v>445445.5106842632</v>
+        <v>559236.3522260099</v>
       </c>
       <c r="AE4" t="n">
-        <v>609478.199387196</v>
+        <v>765171.8488822419</v>
       </c>
       <c r="AF4" t="n">
         <v>8.73898502856503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.75651041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>551310.4554457066</v>
+        <v>692144.9215503549</v>
       </c>
     </row>
     <row r="5">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>427.698590612086</v>
+        <v>541.3879469273475</v>
       </c>
       <c r="AB5" t="n">
-        <v>585.1960804055866</v>
+        <v>740.7508733365433</v>
       </c>
       <c r="AC5" t="n">
-        <v>529.3457878195341</v>
+        <v>670.0546496356832</v>
       </c>
       <c r="AD5" t="n">
-        <v>427698.590612086</v>
+        <v>541387.9469273475</v>
       </c>
       <c r="AE5" t="n">
-        <v>585196.0804055866</v>
+        <v>740750.8733365433</v>
       </c>
       <c r="AF5" t="n">
         <v>8.979077546315669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.11848958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>529345.7878195341</v>
+        <v>670054.6496356832</v>
       </c>
     </row>
     <row r="6">
@@ -7037,28 +7037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>428.7038890265062</v>
+        <v>542.3932453417677</v>
       </c>
       <c r="AB6" t="n">
-        <v>586.5715740468326</v>
+        <v>742.126366977789</v>
       </c>
       <c r="AC6" t="n">
-        <v>530.5900062781767</v>
+        <v>671.2988680943258</v>
       </c>
       <c r="AD6" t="n">
-        <v>428703.8890265062</v>
+        <v>542393.2453417678</v>
       </c>
       <c r="AE6" t="n">
-        <v>586571.5740468325</v>
+        <v>742126.366977789</v>
       </c>
       <c r="AF6" t="n">
         <v>8.98162833003679e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.11197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>530590.0062781767</v>
+        <v>671298.8680943259</v>
       </c>
     </row>
   </sheetData>
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.6803617060033</v>
+        <v>563.8792033836022</v>
       </c>
       <c r="AB2" t="n">
-        <v>607.063044682264</v>
+        <v>771.5244026641967</v>
       </c>
       <c r="AC2" t="n">
-        <v>549.1257997161224</v>
+        <v>697.891196515225</v>
       </c>
       <c r="AD2" t="n">
-        <v>443680.3617060033</v>
+        <v>563879.2033836022</v>
       </c>
       <c r="AE2" t="n">
-        <v>607063.044682264</v>
+        <v>771524.4026641967</v>
       </c>
       <c r="AF2" t="n">
         <v>1.05308359271873e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.06770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>549125.7997161224</v>
+        <v>697891.196515225</v>
       </c>
     </row>
     <row r="3">
@@ -7440,28 +7440,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.2778602932181</v>
+        <v>505.2254587796397</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.4683627647491</v>
+        <v>691.2717616764683</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.9822593710832</v>
+        <v>625.2977549480765</v>
       </c>
       <c r="AD3" t="n">
-        <v>394277.8602932181</v>
+        <v>505225.4587796397</v>
       </c>
       <c r="AE3" t="n">
-        <v>539468.3627647491</v>
+        <v>691271.7616764683</v>
       </c>
       <c r="AF3" t="n">
         <v>1.131900396931101e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>487982.2593710832</v>
+        <v>625297.7549480766</v>
       </c>
     </row>
   </sheetData>
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1226.054786983267</v>
+        <v>1439.51556771219</v>
       </c>
       <c r="AB2" t="n">
-        <v>1677.542249270248</v>
+        <v>1969.608706688571</v>
       </c>
       <c r="AC2" t="n">
-        <v>1517.439971445229</v>
+        <v>1781.632016085395</v>
       </c>
       <c r="AD2" t="n">
-        <v>1226054.786983267</v>
+        <v>1439515.56771219</v>
       </c>
       <c r="AE2" t="n">
-        <v>1677542.249270248</v>
+        <v>1969608.706688571</v>
       </c>
       <c r="AF2" t="n">
         <v>3.964136930393342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.27864583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1517439.971445229</v>
+        <v>1781632.016085395</v>
       </c>
     </row>
     <row r="3">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.4210802026189</v>
+        <v>846.0208452662396</v>
       </c>
       <c r="AB3" t="n">
-        <v>958.3470223304417</v>
+        <v>1157.563044298781</v>
       </c>
       <c r="AC3" t="n">
-        <v>866.8837275677173</v>
+        <v>1047.086852000841</v>
       </c>
       <c r="AD3" t="n">
-        <v>700421.0802026188</v>
+        <v>846020.8452662396</v>
       </c>
       <c r="AE3" t="n">
-        <v>958347.0223304417</v>
+        <v>1157563.044298781</v>
       </c>
       <c r="AF3" t="n">
         <v>5.778630516259748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.99739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>866883.7275677173</v>
+        <v>1047086.852000841</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>595.3495607685104</v>
+        <v>731.2062317145236</v>
       </c>
       <c r="AB4" t="n">
-        <v>814.5835340124094</v>
+        <v>1000.468624774061</v>
       </c>
       <c r="AC4" t="n">
-        <v>736.8408248014348</v>
+        <v>904.9853033921581</v>
       </c>
       <c r="AD4" t="n">
-        <v>595349.5607685104</v>
+        <v>731206.2317145236</v>
       </c>
       <c r="AE4" t="n">
-        <v>814583.5340124094</v>
+        <v>1000468.624774061</v>
       </c>
       <c r="AF4" t="n">
         <v>6.456394966761414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.95703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>736840.8248014348</v>
+        <v>904985.3033921581</v>
       </c>
     </row>
     <row r="5">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>550.3868622472954</v>
+        <v>676.5687699132627</v>
       </c>
       <c r="AB5" t="n">
-        <v>753.0635862814207</v>
+        <v>925.7112391028814</v>
       </c>
       <c r="AC5" t="n">
-        <v>681.1922545381028</v>
+        <v>837.3626576867858</v>
       </c>
       <c r="AD5" t="n">
-        <v>550386.8622472954</v>
+        <v>676568.7699132627</v>
       </c>
       <c r="AE5" t="n">
-        <v>753063.5862814208</v>
+        <v>925711.2391028814</v>
       </c>
       <c r="AF5" t="n">
         <v>6.819345166232493e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.57682291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>681192.2545381028</v>
+        <v>837362.6576867858</v>
       </c>
     </row>
     <row r="6">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>521.6906029186423</v>
+        <v>647.8383451658287</v>
       </c>
       <c r="AB6" t="n">
-        <v>713.800098278345</v>
+        <v>886.4010044665579</v>
       </c>
       <c r="AC6" t="n">
-        <v>645.676018723389</v>
+        <v>801.8041366718921</v>
       </c>
       <c r="AD6" t="n">
-        <v>521690.6029186423</v>
+        <v>647838.3451658287</v>
       </c>
       <c r="AE6" t="n">
-        <v>713800.098278345</v>
+        <v>886401.0044665579</v>
       </c>
       <c r="AF6" t="n">
         <v>7.007512964681684e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.91276041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>645676.018723389</v>
+        <v>801804.1366718921</v>
       </c>
     </row>
     <row r="7">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>504.2206865891918</v>
+        <v>620.6263457486278</v>
       </c>
       <c r="AB7" t="n">
-        <v>689.896988038077</v>
+        <v>849.1683463552571</v>
       </c>
       <c r="AC7" t="n">
-        <v>624.0541877762263</v>
+        <v>768.12491119437</v>
       </c>
       <c r="AD7" t="n">
-        <v>504220.6865891918</v>
+        <v>620626.3457486278</v>
       </c>
       <c r="AE7" t="n">
-        <v>689896.988038077</v>
+        <v>849168.3463552571</v>
       </c>
       <c r="AF7" t="n">
         <v>7.171998906144109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.36588541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>624054.1877762263</v>
+        <v>768124.91119437</v>
       </c>
     </row>
     <row r="8">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>492.6642191360282</v>
+        <v>609.0698782954643</v>
       </c>
       <c r="AB8" t="n">
-        <v>674.0849194332969</v>
+        <v>833.356277750477</v>
       </c>
       <c r="AC8" t="n">
-        <v>609.7512008067088</v>
+        <v>753.8219242248526</v>
       </c>
       <c r="AD8" t="n">
-        <v>492664.2191360283</v>
+        <v>609069.8782954642</v>
       </c>
       <c r="AE8" t="n">
-        <v>674084.9194332969</v>
+        <v>833356.2777504771</v>
       </c>
       <c r="AF8" t="n">
         <v>7.248192706884136e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.11848958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>609751.2008067088</v>
+        <v>753821.9242248526</v>
       </c>
     </row>
     <row r="9">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>469.9070107438704</v>
+        <v>586.3799897110108</v>
       </c>
       <c r="AB9" t="n">
-        <v>642.9475029339695</v>
+        <v>802.310971181991</v>
       </c>
       <c r="AC9" t="n">
-        <v>581.5854956364385</v>
+        <v>725.7395381429013</v>
       </c>
       <c r="AD9" t="n">
-        <v>469907.0107438704</v>
+        <v>586379.9897110108</v>
       </c>
       <c r="AE9" t="n">
-        <v>642947.5029339695</v>
+        <v>802310.971181991</v>
       </c>
       <c r="AF9" t="n">
         <v>7.35192953694573e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.79296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>581585.4956364385</v>
+        <v>725739.5381429014</v>
       </c>
     </row>
     <row r="10">
@@ -8585,28 +8585,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>470.9412875638668</v>
+        <v>587.4142665310071</v>
       </c>
       <c r="AB10" t="n">
-        <v>644.3626461081615</v>
+        <v>803.7261143561831</v>
       </c>
       <c r="AC10" t="n">
-        <v>582.8655795322516</v>
+        <v>727.0196220387144</v>
       </c>
       <c r="AD10" t="n">
-        <v>470941.2875638668</v>
+        <v>587414.2665310071</v>
       </c>
       <c r="AE10" t="n">
-        <v>644362.6461081614</v>
+        <v>803726.1143561831</v>
       </c>
       <c r="AF10" t="n">
         <v>7.344979426743092e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.81901041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>582865.5795322516</v>
+        <v>727019.6220387144</v>
       </c>
     </row>
   </sheetData>
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.787341571293</v>
+        <v>506.0284075399113</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.5337016430253</v>
+        <v>692.3703915938712</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.850485205538</v>
+        <v>626.2915331680992</v>
       </c>
       <c r="AD2" t="n">
-        <v>395787.341571293</v>
+        <v>506028.4075399113</v>
       </c>
       <c r="AE2" t="n">
-        <v>541533.7016430253</v>
+        <v>692370.3915938712</v>
       </c>
       <c r="AF2" t="n">
         <v>1.198178982411883e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.07161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>489850.485205538</v>
+        <v>626291.5331680992</v>
       </c>
     </row>
     <row r="3">
@@ -8988,28 +8988,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.2541229548472</v>
+        <v>504.6836962567368</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.1216872391951</v>
+        <v>690.530498291757</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.8139332290201</v>
+        <v>624.6272367004323</v>
       </c>
       <c r="AD3" t="n">
-        <v>385254.1229548472</v>
+        <v>504683.6962567368</v>
       </c>
       <c r="AE3" t="n">
-        <v>527121.6872391951</v>
+        <v>690530.498291757</v>
       </c>
       <c r="AF3" t="n">
         <v>1.206761463666114e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>476813.9332290201</v>
+        <v>624627.2367004323</v>
       </c>
     </row>
   </sheetData>
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>893.3984169094174</v>
+        <v>1075.510517960124</v>
       </c>
       <c r="AB2" t="n">
-        <v>1222.387127971922</v>
+        <v>1471.56093884837</v>
       </c>
       <c r="AC2" t="n">
-        <v>1105.72421610939</v>
+        <v>1331.11722819343</v>
       </c>
       <c r="AD2" t="n">
-        <v>893398.4169094174</v>
+        <v>1075510.517960124</v>
       </c>
       <c r="AE2" t="n">
-        <v>1222387.127971922</v>
+        <v>1471560.93884837</v>
       </c>
       <c r="AF2" t="n">
         <v>5.191598774487122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.97005208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1105724.21610939</v>
+        <v>1331117.22819343</v>
       </c>
     </row>
     <row r="3">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>583.7544383221372</v>
+        <v>717.958485873659</v>
       </c>
       <c r="AB3" t="n">
-        <v>798.7185759405819</v>
+        <v>982.3424744652924</v>
       </c>
       <c r="AC3" t="n">
-        <v>722.489996061374</v>
+        <v>888.5890874286463</v>
       </c>
       <c r="AD3" t="n">
-        <v>583754.4383221371</v>
+        <v>717958.485873659</v>
       </c>
       <c r="AE3" t="n">
-        <v>798718.5759405819</v>
+        <v>982342.4744652924</v>
       </c>
       <c r="AF3" t="n">
         <v>6.936377522840998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.92057291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>722489.996061374</v>
+        <v>888589.0874286463</v>
       </c>
     </row>
     <row r="4">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>507.9298266978583</v>
+        <v>632.443945239302</v>
       </c>
       <c r="AB4" t="n">
-        <v>694.9719971704674</v>
+        <v>865.3377073340915</v>
       </c>
       <c r="AC4" t="n">
-        <v>628.6448451598413</v>
+        <v>782.7510910552254</v>
       </c>
       <c r="AD4" t="n">
-        <v>507929.8266978583</v>
+        <v>632443.945239302</v>
       </c>
       <c r="AE4" t="n">
-        <v>694971.9971704674</v>
+        <v>865337.7073340915</v>
       </c>
       <c r="AF4" t="n">
         <v>7.622184852664132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.49869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>628644.8451598414</v>
+        <v>782751.0910552253</v>
       </c>
     </row>
     <row r="5">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>475.4377681696068</v>
+        <v>590.4990935727235</v>
       </c>
       <c r="AB5" t="n">
-        <v>650.514929243659</v>
+        <v>807.9469108076233</v>
       </c>
       <c r="AC5" t="n">
-        <v>588.4306974000808</v>
+        <v>730.8375916007543</v>
       </c>
       <c r="AD5" t="n">
-        <v>475437.7681696068</v>
+        <v>590499.0935727234</v>
       </c>
       <c r="AE5" t="n">
-        <v>650514.929243659</v>
+        <v>807946.9108076233</v>
       </c>
       <c r="AF5" t="n">
         <v>7.893524766513017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.65885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>588430.6974000809</v>
+        <v>730837.5916007543</v>
       </c>
     </row>
     <row r="6">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>444.0988311398459</v>
+        <v>559.1259911241817</v>
       </c>
       <c r="AB6" t="n">
-        <v>607.6356130232158</v>
+        <v>765.0208479539324</v>
       </c>
       <c r="AC6" t="n">
-        <v>549.6437229382185</v>
+        <v>692.0083319387119</v>
       </c>
       <c r="AD6" t="n">
-        <v>444098.8311398459</v>
+        <v>559125.9911241818</v>
       </c>
       <c r="AE6" t="n">
-        <v>607635.6130232158</v>
+        <v>765020.8479539324</v>
       </c>
       <c r="AF6" t="n">
         <v>8.126142811049427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.98177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>549643.7229382185</v>
+        <v>692008.3319387119</v>
       </c>
     </row>
     <row r="7">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>440.6248733835992</v>
+        <v>555.6520333679351</v>
       </c>
       <c r="AB7" t="n">
-        <v>602.8823907609194</v>
+        <v>760.267625691636</v>
       </c>
       <c r="AC7" t="n">
-        <v>545.3441415374463</v>
+        <v>687.7087505379399</v>
       </c>
       <c r="AD7" t="n">
-        <v>440624.8733835992</v>
+        <v>555652.0333679351</v>
       </c>
       <c r="AE7" t="n">
-        <v>602882.3907609194</v>
+        <v>760267.625691636</v>
       </c>
       <c r="AF7" t="n">
         <v>8.16257005106931e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.87760416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>545344.1415374463</v>
+        <v>687708.7505379398</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1044.747941686139</v>
+        <v>1247.318344531826</v>
       </c>
       <c r="AB2" t="n">
-        <v>1429.470224841222</v>
+        <v>1706.635986790137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1293.043592856436</v>
+        <v>1543.757043489537</v>
       </c>
       <c r="AD2" t="n">
-        <v>1044747.941686139</v>
+        <v>1247318.344531826</v>
       </c>
       <c r="AE2" t="n">
-        <v>1429470.224841222</v>
+        <v>1706635.986790137</v>
       </c>
       <c r="AF2" t="n">
         <v>4.522728823593613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.97135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1293043.592856436</v>
+        <v>1543757.043489537</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>639.7161087915389</v>
+        <v>784.4141344554265</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.2878023314753</v>
+        <v>1073.270024671165</v>
       </c>
       <c r="AC3" t="n">
-        <v>791.7515629511047</v>
+        <v>970.8386398604885</v>
       </c>
       <c r="AD3" t="n">
-        <v>639716.1087915389</v>
+        <v>784414.1344554265</v>
       </c>
       <c r="AE3" t="n">
-        <v>875287.8023314753</v>
+        <v>1073270.024671165</v>
       </c>
       <c r="AF3" t="n">
         <v>6.319637006903448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>791751.5629511047</v>
+        <v>970838.6398604885</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>556.5199122088507</v>
+        <v>681.8826026169548</v>
       </c>
       <c r="AB4" t="n">
-        <v>761.455095809889</v>
+        <v>932.9818594378266</v>
       </c>
       <c r="AC4" t="n">
-        <v>688.7828901747315</v>
+        <v>843.9393802213436</v>
       </c>
       <c r="AD4" t="n">
-        <v>556519.9122088506</v>
+        <v>681882.6026169548</v>
       </c>
       <c r="AE4" t="n">
-        <v>761455.095809889</v>
+        <v>932981.8594378267</v>
       </c>
       <c r="AF4" t="n">
         <v>6.989991784947015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.21484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>688782.8901747315</v>
+        <v>843939.3802213436</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>522.6602420432761</v>
+        <v>638.4060074367311</v>
       </c>
       <c r="AB5" t="n">
-        <v>715.1268013061283</v>
+        <v>873.4952638602348</v>
       </c>
       <c r="AC5" t="n">
-        <v>646.8761030762399</v>
+        <v>790.1301018357158</v>
       </c>
       <c r="AD5" t="n">
-        <v>522660.2420432761</v>
+        <v>638406.0074367311</v>
       </c>
       <c r="AE5" t="n">
-        <v>715126.8013061283</v>
+        <v>873495.2638602348</v>
       </c>
       <c r="AF5" t="n">
         <v>7.256671694629128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.29036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>646876.1030762399</v>
+        <v>790130.1018357158</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>489.4121276044754</v>
+        <v>605.1237275791497</v>
       </c>
       <c r="AB6" t="n">
-        <v>669.6352643276737</v>
+        <v>827.9569802485325</v>
       </c>
       <c r="AC6" t="n">
-        <v>605.726214539236</v>
+        <v>748.9379280985319</v>
       </c>
       <c r="AD6" t="n">
-        <v>489412.1276044754</v>
+        <v>605123.7275791497</v>
       </c>
       <c r="AE6" t="n">
-        <v>669635.2643276737</v>
+        <v>827956.9802485325</v>
       </c>
       <c r="AF6" t="n">
         <v>7.506565660757647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.48307291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>605726.214539236</v>
+        <v>748937.9280985319</v>
       </c>
     </row>
     <row r="7">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>459.7395618337898</v>
+        <v>575.5184816161683</v>
       </c>
       <c r="AB7" t="n">
-        <v>629.0359507790088</v>
+        <v>787.4497766307089</v>
       </c>
       <c r="AC7" t="n">
-        <v>569.0016424941612</v>
+        <v>712.2966751417762</v>
       </c>
       <c r="AD7" t="n">
-        <v>459739.5618337897</v>
+        <v>575518.4816161683</v>
       </c>
       <c r="AE7" t="n">
-        <v>629035.9507790088</v>
+        <v>787449.7766307089</v>
       </c>
       <c r="AF7" t="n">
         <v>7.703665126999859e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.87760416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>569001.6424941611</v>
+        <v>712296.6751417762</v>
       </c>
     </row>
     <row r="8">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>455.8518573990572</v>
+        <v>571.6307771814359</v>
       </c>
       <c r="AB8" t="n">
-        <v>623.7166220579929</v>
+        <v>782.1304479096931</v>
       </c>
       <c r="AC8" t="n">
-        <v>564.1899830405544</v>
+        <v>707.4850156881694</v>
       </c>
       <c r="AD8" t="n">
-        <v>455851.8573990572</v>
+        <v>571630.7771814358</v>
       </c>
       <c r="AE8" t="n">
-        <v>623716.622057993</v>
+        <v>782130.4479096931</v>
       </c>
       <c r="AF8" t="n">
         <v>7.71151661672654e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.85807291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>564189.9830405543</v>
+        <v>707485.0156881694</v>
       </c>
     </row>
     <row r="9">
@@ -10854,28 +10854,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>455.4810042854851</v>
+        <v>571.2599240678636</v>
       </c>
       <c r="AB9" t="n">
-        <v>623.209204467119</v>
+        <v>781.6230303188191</v>
       </c>
       <c r="AC9" t="n">
-        <v>563.7309926723882</v>
+        <v>707.0260253200033</v>
       </c>
       <c r="AD9" t="n">
-        <v>455481.0042854851</v>
+        <v>571259.9240678636</v>
       </c>
       <c r="AE9" t="n">
-        <v>623209.204467119</v>
+        <v>781623.0303188191</v>
       </c>
       <c r="AF9" t="n">
         <v>7.733446639756237e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.79296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>563730.9926723882</v>
+        <v>707026.0253200033</v>
       </c>
     </row>
   </sheetData>
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1439.381329714713</v>
+        <v>1663.859214372746</v>
       </c>
       <c r="AB2" t="n">
-        <v>1969.42503633826</v>
+        <v>2276.565581392714</v>
       </c>
       <c r="AC2" t="n">
-        <v>1781.465874975534</v>
+        <v>2059.293357484454</v>
       </c>
       <c r="AD2" t="n">
-        <v>1439381.329714713</v>
+        <v>1663859.214372746</v>
       </c>
       <c r="AE2" t="n">
-        <v>1969425.03633826</v>
+        <v>2276565.581392714</v>
       </c>
       <c r="AF2" t="n">
         <v>3.476416645883002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1781465.874975534</v>
+        <v>2059293.357484454</v>
       </c>
     </row>
     <row r="3">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>773.7695634758354</v>
+        <v>920.1447683196988</v>
       </c>
       <c r="AB3" t="n">
-        <v>1058.70565305156</v>
+        <v>1258.982665937216</v>
       </c>
       <c r="AC3" t="n">
-        <v>957.6642714270345</v>
+        <v>1138.827127293436</v>
       </c>
       <c r="AD3" t="n">
-        <v>773769.5634758354</v>
+        <v>920144.7683196987</v>
       </c>
       <c r="AE3" t="n">
-        <v>1058705.65305156</v>
+        <v>1258982.665937216</v>
       </c>
       <c r="AF3" t="n">
         <v>5.312702988887114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.16276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>957664.2714270345</v>
+        <v>1138827.127293436</v>
       </c>
     </row>
     <row r="4">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>643.1902792706422</v>
+        <v>779.8358035266581</v>
       </c>
       <c r="AB4" t="n">
-        <v>880.0413156505688</v>
+        <v>1067.005750312718</v>
       </c>
       <c r="AC4" t="n">
-        <v>796.0514076306217</v>
+        <v>965.1722190548479</v>
       </c>
       <c r="AD4" t="n">
-        <v>643190.2792706422</v>
+        <v>779835.8035266581</v>
       </c>
       <c r="AE4" t="n">
-        <v>880041.3156505688</v>
+        <v>1067005.750312718</v>
       </c>
       <c r="AF4" t="n">
         <v>6.009463026019488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>796051.4076306217</v>
+        <v>965172.219054848</v>
       </c>
     </row>
     <row r="5">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>590.4847736600767</v>
+        <v>707.6056389924073</v>
       </c>
       <c r="AB5" t="n">
-        <v>807.92731767139</v>
+        <v>968.1772526269941</v>
       </c>
       <c r="AC5" t="n">
-        <v>730.8198684059441</v>
+        <v>875.7757744815816</v>
       </c>
       <c r="AD5" t="n">
-        <v>590484.7736600767</v>
+        <v>707605.6389924074</v>
       </c>
       <c r="AE5" t="n">
-        <v>807927.31767139</v>
+        <v>968177.2526269942</v>
       </c>
       <c r="AF5" t="n">
         <v>6.405712994151993e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.01302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>730819.8684059441</v>
+        <v>875775.7744815816</v>
       </c>
     </row>
     <row r="6">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>562.8631124083777</v>
+        <v>679.9498123219277</v>
       </c>
       <c r="AB6" t="n">
-        <v>770.1341421651244</v>
+        <v>930.3373304874806</v>
       </c>
       <c r="AC6" t="n">
-        <v>696.6336205269414</v>
+        <v>841.547241402399</v>
       </c>
       <c r="AD6" t="n">
-        <v>562863.1124083777</v>
+        <v>679949.8123219276</v>
       </c>
       <c r="AE6" t="n">
-        <v>770134.1421651244</v>
+        <v>930337.3304874806</v>
       </c>
       <c r="AF6" t="n">
         <v>6.579226178955358e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.35546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>696633.6205269414</v>
+        <v>841547.241402399</v>
       </c>
     </row>
     <row r="7">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>534.9424079869597</v>
+        <v>661.7909318474235</v>
       </c>
       <c r="AB7" t="n">
-        <v>731.9318026011954</v>
+        <v>905.4915491089976</v>
       </c>
       <c r="AC7" t="n">
-        <v>662.0772586336734</v>
+        <v>819.0727065274052</v>
       </c>
       <c r="AD7" t="n">
-        <v>534942.4079869597</v>
+        <v>661790.9318474235</v>
       </c>
       <c r="AE7" t="n">
-        <v>731931.8026011954</v>
+        <v>905491.5491089976</v>
       </c>
       <c r="AF7" t="n">
         <v>6.739448992156761e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.77604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>662077.2586336734</v>
+        <v>819072.7065274052</v>
       </c>
     </row>
     <row r="8">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>519.8868900419035</v>
+        <v>636.9394245366725</v>
       </c>
       <c r="AB8" t="n">
-        <v>711.3321787461949</v>
+        <v>871.4886204353036</v>
       </c>
       <c r="AC8" t="n">
-        <v>643.4436339676406</v>
+        <v>788.3149696429183</v>
       </c>
       <c r="AD8" t="n">
-        <v>519886.8900419035</v>
+        <v>636939.4245366725</v>
       </c>
       <c r="AE8" t="n">
-        <v>711332.1787461949</v>
+        <v>871488.6204353035</v>
       </c>
       <c r="AF8" t="n">
         <v>6.871122118213214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.3203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>643443.6339676406</v>
+        <v>788314.9696429183</v>
       </c>
     </row>
     <row r="9">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>508.5136907080037</v>
+        <v>615.8717210635631</v>
       </c>
       <c r="AB9" t="n">
-        <v>695.7708656674105</v>
+        <v>842.6628591019148</v>
       </c>
       <c r="AC9" t="n">
-        <v>629.3674707686552</v>
+        <v>762.2402985139779</v>
       </c>
       <c r="AD9" t="n">
-        <v>508513.6907080037</v>
+        <v>615871.7210635631</v>
       </c>
       <c r="AE9" t="n">
-        <v>695770.8656674104</v>
+        <v>842662.8591019148</v>
       </c>
       <c r="AF9" t="n">
         <v>6.944219162023993e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>629367.4707686552</v>
+        <v>762240.2985139779</v>
       </c>
     </row>
     <row r="10">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>488.071130357647</v>
+        <v>605.1909846601204</v>
       </c>
       <c r="AB10" t="n">
-        <v>667.80045273394</v>
+        <v>828.0490043538899</v>
       </c>
       <c r="AC10" t="n">
-        <v>604.066514788834</v>
+        <v>749.0211695524306</v>
       </c>
       <c r="AD10" t="n">
-        <v>488071.130357647</v>
+        <v>605190.9846601204</v>
       </c>
       <c r="AE10" t="n">
-        <v>667800.45273394</v>
+        <v>828049.00435389</v>
       </c>
       <c r="AF10" t="n">
         <v>7.009932666055906e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.85807291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>604066.5147888339</v>
+        <v>749021.1695524306</v>
       </c>
     </row>
     <row r="11">
@@ -12105,28 +12105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>484.2052885208733</v>
+        <v>601.3251428233468</v>
       </c>
       <c r="AB11" t="n">
-        <v>662.5110373839611</v>
+        <v>822.7595890039112</v>
       </c>
       <c r="AC11" t="n">
-        <v>599.281913816116</v>
+        <v>744.2365685797129</v>
       </c>
       <c r="AD11" t="n">
-        <v>484205.2885208733</v>
+        <v>601325.1428233468</v>
       </c>
       <c r="AE11" t="n">
-        <v>662511.0373839611</v>
+        <v>822759.5890039111</v>
       </c>
       <c r="AF11" t="n">
         <v>7.038974589186114e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.76692708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>599281.9138161161</v>
+        <v>744236.5685797129</v>
       </c>
     </row>
     <row r="12">
@@ -12211,28 +12211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>485.4996390767852</v>
+        <v>602.6194933792588</v>
       </c>
       <c r="AB12" t="n">
-        <v>664.2820249172763</v>
+        <v>824.5305765372264</v>
       </c>
       <c r="AC12" t="n">
-        <v>600.8838807848482</v>
+        <v>745.838535548445</v>
       </c>
       <c r="AD12" t="n">
-        <v>485499.6390767852</v>
+        <v>602619.4933792588</v>
       </c>
       <c r="AE12" t="n">
-        <v>664282.0249172763</v>
+        <v>824530.5765372263</v>
       </c>
       <c r="AF12" t="n">
         <v>7.035282819296681e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.7734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>600883.8807848482</v>
+        <v>745838.535548445</v>
       </c>
     </row>
   </sheetData>
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>768.2726362652909</v>
+        <v>930.0067648553087</v>
       </c>
       <c r="AB2" t="n">
-        <v>1051.184514734779</v>
+        <v>1272.476284677817</v>
       </c>
       <c r="AC2" t="n">
-        <v>950.8609399952239</v>
+        <v>1151.032933999848</v>
       </c>
       <c r="AD2" t="n">
-        <v>768272.6362652909</v>
+        <v>930006.7648553087</v>
       </c>
       <c r="AE2" t="n">
-        <v>1051184.514734779</v>
+        <v>1272476.284677817</v>
       </c>
       <c r="AF2" t="n">
         <v>6.011265871640912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>950860.9399952239</v>
+        <v>1151032.933999848</v>
       </c>
     </row>
     <row r="3">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>524.994644521698</v>
+        <v>658.2027015330211</v>
       </c>
       <c r="AB3" t="n">
-        <v>718.3208337636738</v>
+        <v>900.5819740912831</v>
       </c>
       <c r="AC3" t="n">
-        <v>649.7653015588902</v>
+        <v>814.6316944587494</v>
       </c>
       <c r="AD3" t="n">
-        <v>524994.644521698</v>
+        <v>658202.7015330212</v>
       </c>
       <c r="AE3" t="n">
-        <v>718320.8337636738</v>
+        <v>900581.974091283</v>
       </c>
       <c r="AF3" t="n">
         <v>7.731312649734979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.83984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>649765.3015588901</v>
+        <v>814631.6944587494</v>
       </c>
     </row>
     <row r="4">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>474.2822682386765</v>
+        <v>588.4518523014449</v>
       </c>
       <c r="AB4" t="n">
-        <v>648.933923261101</v>
+        <v>805.1457849823495</v>
       </c>
       <c r="AC4" t="n">
-        <v>587.0005804095424</v>
+        <v>728.3038012928397</v>
       </c>
       <c r="AD4" t="n">
-        <v>474282.2682386765</v>
+        <v>588451.8523014449</v>
       </c>
       <c r="AE4" t="n">
-        <v>648933.923261101</v>
+        <v>805145.7849823495</v>
       </c>
       <c r="AF4" t="n">
         <v>8.309366187003837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.04296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>587000.5804095424</v>
+        <v>728303.8012928397</v>
       </c>
     </row>
     <row r="5">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>439.0008508944916</v>
+        <v>553.1362695384792</v>
       </c>
       <c r="AB5" t="n">
-        <v>600.6603315445068</v>
+        <v>756.8254466325074</v>
       </c>
       <c r="AC5" t="n">
-        <v>543.3341525339683</v>
+        <v>684.5950882170858</v>
       </c>
       <c r="AD5" t="n">
-        <v>439000.8508944917</v>
+        <v>553136.2695384792</v>
       </c>
       <c r="AE5" t="n">
-        <v>600660.3315445068</v>
+        <v>756825.4466325074</v>
       </c>
       <c r="AF5" t="n">
         <v>8.630609315199428e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.14453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>543334.1525339683</v>
+        <v>684595.0882170858</v>
       </c>
     </row>
     <row r="6">
@@ -12932,28 +12932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>436.1031127621466</v>
+        <v>540.7871202544898</v>
       </c>
       <c r="AB6" t="n">
-        <v>596.6955183926483</v>
+        <v>739.9287957761371</v>
       </c>
       <c r="AC6" t="n">
-        <v>539.7477355846731</v>
+        <v>669.3110300038492</v>
       </c>
       <c r="AD6" t="n">
-        <v>436103.1127621466</v>
+        <v>540787.1202544897</v>
       </c>
       <c r="AE6" t="n">
-        <v>596695.5183926483</v>
+        <v>739928.7957761372</v>
       </c>
       <c r="AF6" t="n">
         <v>8.668041656784778e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>539747.7355846731</v>
+        <v>669311.0300038492</v>
       </c>
     </row>
   </sheetData>
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>593.0774025271581</v>
+        <v>733.9899178303752</v>
       </c>
       <c r="AB2" t="n">
-        <v>811.4746668660442</v>
+        <v>1004.277386925334</v>
       </c>
       <c r="AC2" t="n">
-        <v>734.0286635721964</v>
+        <v>908.4305626293443</v>
       </c>
       <c r="AD2" t="n">
-        <v>593077.4025271581</v>
+        <v>733989.9178303753</v>
       </c>
       <c r="AE2" t="n">
-        <v>811474.6668660443</v>
+        <v>1004277.386925334</v>
       </c>
       <c r="AF2" t="n">
         <v>7.702885606633122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.48567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>734028.6635721964</v>
+        <v>908430.5626293443</v>
       </c>
     </row>
     <row r="3">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.5329460640888</v>
+        <v>556.2768266801462</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.8613440974774</v>
+        <v>761.1224954653387</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.9433491520591</v>
+        <v>688.4820327402576</v>
       </c>
       <c r="AD3" t="n">
-        <v>443532.9460640888</v>
+        <v>556276.8266801462</v>
       </c>
       <c r="AE3" t="n">
-        <v>606861.3440974774</v>
+        <v>761122.4954653387</v>
       </c>
       <c r="AF3" t="n">
         <v>9.336334150962859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.32942708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>548943.3491520591</v>
+        <v>688482.0327402577</v>
       </c>
     </row>
     <row r="4">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.3226368658985</v>
+        <v>524.032352063175</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.789778033962</v>
+        <v>717.0041827685756</v>
       </c>
       <c r="AC4" t="n">
-        <v>509.0779114988143</v>
+        <v>648.5743098868328</v>
       </c>
       <c r="AD4" t="n">
-        <v>411322.6368658985</v>
+        <v>524032.3520631751</v>
       </c>
       <c r="AE4" t="n">
-        <v>562789.778033962</v>
+        <v>717004.1827685756</v>
       </c>
       <c r="AF4" t="n">
         <v>9.720449240092941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.36588541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>509077.9114988143</v>
+        <v>648574.3098868328</v>
       </c>
     </row>
     <row r="5">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.5781723795649</v>
+        <v>525.2878875768415</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.507657114078</v>
+        <v>718.7220618486916</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.6318386105825</v>
+        <v>650.1282369986011</v>
       </c>
       <c r="AD5" t="n">
-        <v>412578.172379565</v>
+        <v>525287.8875768415</v>
       </c>
       <c r="AE5" t="n">
-        <v>564507.6571140781</v>
+        <v>718722.0618486917</v>
       </c>
       <c r="AF5" t="n">
         <v>9.721495875213186e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.36588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>510631.8386105825</v>
+        <v>650128.2369986011</v>
       </c>
     </row>
   </sheetData>
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>494.1920371891395</v>
+        <v>624.3740958097866</v>
       </c>
       <c r="AB2" t="n">
-        <v>676.1753474961392</v>
+        <v>854.2961833279982</v>
       </c>
       <c r="AC2" t="n">
-        <v>611.6421213491675</v>
+        <v>772.7633546033971</v>
       </c>
       <c r="AD2" t="n">
-        <v>494192.0371891395</v>
+        <v>624374.0958097866</v>
       </c>
       <c r="AE2" t="n">
-        <v>676175.3474961392</v>
+        <v>854296.1833279982</v>
       </c>
       <c r="AF2" t="n">
         <v>9.354352227024037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.27213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>611642.1213491675</v>
+        <v>772763.3546033972</v>
       </c>
     </row>
     <row r="3">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.1862834301562</v>
+        <v>515.0955290220745</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.3430632606216</v>
+        <v>704.7764272189351</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.8689182757707</v>
+        <v>637.5135541650874</v>
       </c>
       <c r="AD3" t="n">
-        <v>394186.2834301562</v>
+        <v>515095.5290220745</v>
       </c>
       <c r="AE3" t="n">
-        <v>539343.0632606216</v>
+        <v>704776.4272189351</v>
       </c>
       <c r="AF3" t="n">
         <v>1.068100507061371e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.88020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>487868.9182757707</v>
+        <v>637513.5541650874</v>
       </c>
     </row>
     <row r="4">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.426551834193</v>
+        <v>516.3357974261114</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.0400532078052</v>
+        <v>706.4734171661186</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.4039498841354</v>
+        <v>639.048585773452</v>
       </c>
       <c r="AD4" t="n">
-        <v>395426.551834193</v>
+        <v>516335.7974261114</v>
       </c>
       <c r="AE4" t="n">
-        <v>541040.0532078051</v>
+        <v>706473.4171661185</v>
       </c>
       <c r="AF4" t="n">
         <v>1.068570673456027e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.87369791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>489403.9498841354</v>
+        <v>639048.5857734521</v>
       </c>
     </row>
   </sheetData>
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.905701446998</v>
+        <v>510.36868251775</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.2226703790886</v>
+        <v>698.3089472979682</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.0463313113523</v>
+        <v>631.6633214506126</v>
       </c>
       <c r="AD2" t="n">
-        <v>391905.701446998</v>
+        <v>510368.68251775</v>
       </c>
       <c r="AE2" t="n">
-        <v>536222.6703790886</v>
+        <v>698308.9472979682</v>
       </c>
       <c r="AF2" t="n">
         <v>1.296273719062908e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.02864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>485046.3313113523</v>
+        <v>631663.3214506125</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>970.7504383023239</v>
+        <v>1153.437221727965</v>
       </c>
       <c r="AB2" t="n">
-        <v>1328.223576172036</v>
+        <v>1578.183692827067</v>
       </c>
       <c r="AC2" t="n">
-        <v>1201.459782235673</v>
+        <v>1427.564056178376</v>
       </c>
       <c r="AD2" t="n">
-        <v>970750.4383023239</v>
+        <v>1153437.221727965</v>
       </c>
       <c r="AE2" t="n">
-        <v>1328223.576172036</v>
+        <v>1578183.692827067</v>
       </c>
       <c r="AF2" t="n">
         <v>4.844950555712609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.40885416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1201459.782235673</v>
+        <v>1427564.056178376</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>616.2082864659361</v>
+        <v>750.7928939304916</v>
       </c>
       <c r="AB3" t="n">
-        <v>843.1233627336588</v>
+        <v>1027.2679601205</v>
       </c>
       <c r="AC3" t="n">
-        <v>762.6568523254294</v>
+        <v>929.2269477862365</v>
       </c>
       <c r="AD3" t="n">
-        <v>616208.2864659361</v>
+        <v>750792.8939304915</v>
       </c>
       <c r="AE3" t="n">
-        <v>843123.3627336589</v>
+        <v>1027267.960120501</v>
       </c>
       <c r="AF3" t="n">
         <v>6.617126793225048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.38932291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>762656.8523254294</v>
+        <v>929226.9477862364</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>528.5600481193219</v>
+        <v>653.5915401993647</v>
       </c>
       <c r="AB4" t="n">
-        <v>723.1991762604486</v>
+        <v>894.2727797244936</v>
       </c>
       <c r="AC4" t="n">
-        <v>654.1780618945693</v>
+        <v>808.9246407473164</v>
       </c>
       <c r="AD4" t="n">
-        <v>528560.0481193219</v>
+        <v>653591.5401993647</v>
       </c>
       <c r="AE4" t="n">
-        <v>723199.1762604485</v>
+        <v>894272.7797244936</v>
       </c>
       <c r="AF4" t="n">
         <v>7.274942132408507e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.91536458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>654178.0618945693</v>
+        <v>808924.6407473164</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>493.5059106340171</v>
+        <v>618.5032372952791</v>
       </c>
       <c r="AB5" t="n">
-        <v>675.2365588736535</v>
+        <v>846.2634157044509</v>
       </c>
       <c r="AC5" t="n">
-        <v>610.7929293952138</v>
+        <v>765.4972230477811</v>
       </c>
       <c r="AD5" t="n">
-        <v>493505.9106340171</v>
+        <v>618503.237295279</v>
       </c>
       <c r="AE5" t="n">
-        <v>675236.5588736535</v>
+        <v>846263.4157044509</v>
       </c>
       <c r="AF5" t="n">
         <v>7.569748075783571e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.9453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>610792.9293952138</v>
+        <v>765497.223047781</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>471.4669813667456</v>
+        <v>586.8107184468669</v>
       </c>
       <c r="AB6" t="n">
-        <v>645.0819235612341</v>
+        <v>802.9003132408001</v>
       </c>
       <c r="AC6" t="n">
-        <v>583.5162101547153</v>
+        <v>726.2726342227643</v>
       </c>
       <c r="AD6" t="n">
-        <v>471466.9813667457</v>
+        <v>586810.7184468668</v>
       </c>
       <c r="AE6" t="n">
-        <v>645081.9235612341</v>
+        <v>802900.3132408001</v>
       </c>
       <c r="AF6" t="n">
         <v>7.801639814056877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.22916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>583516.2101547152</v>
+        <v>726272.6342227643</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>444.8226347276743</v>
+        <v>560.2336916154998</v>
       </c>
       <c r="AB7" t="n">
-        <v>608.6259530240433</v>
+        <v>766.5364526344504</v>
       </c>
       <c r="AC7" t="n">
-        <v>550.5395462793178</v>
+        <v>693.3792894356859</v>
       </c>
       <c r="AD7" t="n">
-        <v>444822.6347276743</v>
+        <v>560233.6916154998</v>
       </c>
       <c r="AE7" t="n">
-        <v>608625.9530240432</v>
+        <v>766536.4526344504</v>
       </c>
       <c r="AF7" t="n">
         <v>7.990939192239167e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.68229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>550539.5462793178</v>
+        <v>693379.289435686</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>448.6802893202462</v>
+        <v>564.0913462080715</v>
       </c>
       <c r="AB8" t="n">
-        <v>613.9041662253095</v>
+        <v>771.8146658357166</v>
       </c>
       <c r="AC8" t="n">
-        <v>555.3140142206738</v>
+        <v>698.1537573770421</v>
       </c>
       <c r="AD8" t="n">
-        <v>448680.2893202462</v>
+        <v>564091.3462080716</v>
       </c>
       <c r="AE8" t="n">
-        <v>613904.1662253095</v>
+        <v>771814.6658357166</v>
       </c>
       <c r="AF8" t="n">
         <v>7.924962791313869e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.87109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>555314.0142206738</v>
+        <v>698153.7573770421</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1327.496637981756</v>
+        <v>1541.628551619169</v>
       </c>
       <c r="AB2" t="n">
-        <v>1816.339465104994</v>
+        <v>2109.32419617701</v>
       </c>
       <c r="AC2" t="n">
-        <v>1642.990575803823</v>
+        <v>1908.013255348978</v>
       </c>
       <c r="AD2" t="n">
-        <v>1327496.637981756</v>
+        <v>1541628.55161917</v>
       </c>
       <c r="AE2" t="n">
-        <v>1816339.465104994</v>
+        <v>2109324.196177009</v>
       </c>
       <c r="AF2" t="n">
         <v>3.713803521615219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.09505208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1642990.575803823</v>
+        <v>1908013.255348978</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>735.6152575603207</v>
+        <v>881.6601894547197</v>
       </c>
       <c r="AB3" t="n">
-        <v>1006.501248448773</v>
+        <v>1206.326367314358</v>
       </c>
       <c r="AC3" t="n">
-        <v>910.4421819301963</v>
+        <v>1091.196271907565</v>
       </c>
       <c r="AD3" t="n">
-        <v>735615.2575603208</v>
+        <v>881660.1894547197</v>
       </c>
       <c r="AE3" t="n">
-        <v>1006501.248448773</v>
+        <v>1206326.367314358</v>
       </c>
       <c r="AF3" t="n">
         <v>5.54504773980533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>910442.1819301962</v>
+        <v>1091196.271907565</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>624.4410592713882</v>
+        <v>750.9460137721628</v>
       </c>
       <c r="AB4" t="n">
-        <v>854.387805690381</v>
+        <v>1027.477465443046</v>
       </c>
       <c r="AC4" t="n">
-        <v>772.8462326561071</v>
+        <v>929.4164582148406</v>
       </c>
       <c r="AD4" t="n">
-        <v>624441.0592713882</v>
+        <v>750946.0137721628</v>
       </c>
       <c r="AE4" t="n">
-        <v>854387.805690381</v>
+        <v>1027477.465443046</v>
       </c>
       <c r="AF4" t="n">
         <v>6.225224163704514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.30859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>772846.2326561071</v>
+        <v>929416.4582148406</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>559.4913112183825</v>
+        <v>686.0294201080808</v>
       </c>
       <c r="AB5" t="n">
-        <v>765.520695023603</v>
+        <v>938.6557180738614</v>
       </c>
       <c r="AC5" t="n">
-        <v>692.460474305593</v>
+        <v>849.0717337524658</v>
       </c>
       <c r="AD5" t="n">
-        <v>559491.3112183826</v>
+        <v>686029.4201080808</v>
       </c>
       <c r="AE5" t="n">
-        <v>765520.695023603</v>
+        <v>938655.7180738614</v>
       </c>
       <c r="AF5" t="n">
         <v>6.66567864530491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.5703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>692460.4743055931</v>
+        <v>849071.7337524658</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>546.3524553863914</v>
+        <v>663.121081094206</v>
       </c>
       <c r="AB6" t="n">
-        <v>747.5435328288628</v>
+        <v>907.3115179904886</v>
       </c>
       <c r="AC6" t="n">
-        <v>676.1990272396132</v>
+        <v>820.7189801331889</v>
       </c>
       <c r="AD6" t="n">
-        <v>546352.4553863914</v>
+        <v>663121.0810942061</v>
       </c>
       <c r="AE6" t="n">
-        <v>747543.5328288628</v>
+        <v>907311.5179904886</v>
       </c>
       <c r="AF6" t="n">
         <v>6.796230259211595e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.09505208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>676199.0272396132</v>
+        <v>820718.9801331889</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>519.0805877881603</v>
+        <v>635.9165333036793</v>
       </c>
       <c r="AB7" t="n">
-        <v>710.2289604310786</v>
+        <v>870.0890555235459</v>
       </c>
       <c r="AC7" t="n">
-        <v>642.4457052601422</v>
+        <v>787.0489772420372</v>
       </c>
       <c r="AD7" t="n">
-        <v>519080.5877881603</v>
+        <v>635916.5333036793</v>
       </c>
       <c r="AE7" t="n">
-        <v>710228.9604310786</v>
+        <v>870089.0555235458</v>
       </c>
       <c r="AF7" t="n">
         <v>6.954451772019504e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.54817708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>642445.7052601422</v>
+        <v>787048.9772420372</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>501.4525410822906</v>
+        <v>608.5190034159261</v>
       </c>
       <c r="AB8" t="n">
-        <v>686.1094892335739</v>
+        <v>832.6025464374086</v>
       </c>
       <c r="AC8" t="n">
-        <v>620.628162541837</v>
+        <v>753.1401279704348</v>
       </c>
       <c r="AD8" t="n">
-        <v>501452.5410822906</v>
+        <v>608519.0034159261</v>
       </c>
       <c r="AE8" t="n">
-        <v>686109.4892335739</v>
+        <v>832602.5464374085</v>
       </c>
       <c r="AF8" t="n">
         <v>7.105630037834375e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>620628.162541837</v>
+        <v>753140.1279704348</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>483.2113932668356</v>
+        <v>600.0131733635739</v>
       </c>
       <c r="AB9" t="n">
-        <v>661.1511460498227</v>
+        <v>820.9644945090422</v>
       </c>
       <c r="AC9" t="n">
-        <v>598.0518086022884</v>
+        <v>742.6127953840033</v>
       </c>
       <c r="AD9" t="n">
-        <v>483211.3932668356</v>
+        <v>600013.1733635738</v>
       </c>
       <c r="AE9" t="n">
-        <v>661151.1460498227</v>
+        <v>820964.4945090422</v>
       </c>
       <c r="AF9" t="n">
         <v>7.148392608863539e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.91015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>598051.8086022884</v>
+        <v>742612.7953840033</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>476.7076144599469</v>
+        <v>593.5093945566853</v>
       </c>
       <c r="AB10" t="n">
-        <v>652.2523889597668</v>
+        <v>812.0657374189864</v>
       </c>
       <c r="AC10" t="n">
-        <v>590.0023363994234</v>
+        <v>734.5633231811383</v>
       </c>
       <c r="AD10" t="n">
-        <v>476707.6144599469</v>
+        <v>593509.3945566852</v>
       </c>
       <c r="AE10" t="n">
-        <v>652252.3889597668</v>
+        <v>812065.7374189864</v>
       </c>
       <c r="AF10" t="n">
         <v>7.195179892460154e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>590002.3363994234</v>
+        <v>734563.3231811384</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>477.5522165539876</v>
+        <v>594.3539966507259</v>
       </c>
       <c r="AB11" t="n">
-        <v>653.408010806048</v>
+        <v>813.2213592652674</v>
       </c>
       <c r="AC11" t="n">
-        <v>591.0476673186209</v>
+        <v>735.6086541003358</v>
       </c>
       <c r="AD11" t="n">
-        <v>477552.2165539876</v>
+        <v>594353.9966507258</v>
       </c>
       <c r="AE11" t="n">
-        <v>653408.0108060479</v>
+        <v>813221.3592652674</v>
       </c>
       <c r="AF11" t="n">
         <v>7.193419080711895e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.76692708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>591047.667318621</v>
+        <v>735608.6541003358</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.2560311958553</v>
+        <v>533.5654209166465</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.9114716982509</v>
+        <v>730.0477481432108</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.9058856274231</v>
+        <v>660.3730156888719</v>
       </c>
       <c r="AD2" t="n">
-        <v>398256.0311958552</v>
+        <v>533565.4209166465</v>
       </c>
       <c r="AE2" t="n">
-        <v>544911.471698251</v>
+        <v>730047.7481432108</v>
       </c>
       <c r="AF2" t="n">
         <v>1.397896592113621e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.42447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>492905.8856274231</v>
+        <v>660373.0156888718</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>647.2396033176551</v>
+        <v>798.295163667107</v>
       </c>
       <c r="AB2" t="n">
-        <v>885.5817794552611</v>
+        <v>1092.262661226375</v>
       </c>
       <c r="AC2" t="n">
-        <v>801.063097345884</v>
+        <v>988.018645839202</v>
       </c>
       <c r="AD2" t="n">
-        <v>647239.6033176552</v>
+        <v>798295.163667107</v>
       </c>
       <c r="AE2" t="n">
-        <v>885581.7794552611</v>
+        <v>1092262.661226375</v>
       </c>
       <c r="AF2" t="n">
         <v>7.043063689129695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>801063.097345884</v>
+        <v>988018.645839202</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.6015149266639</v>
+        <v>591.327751694572</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.161265962457</v>
+        <v>809.080717407753</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.9697346144878</v>
+        <v>731.863189290275</v>
       </c>
       <c r="AD3" t="n">
-        <v>468601.5149266639</v>
+        <v>591327.751694572</v>
       </c>
       <c r="AE3" t="n">
-        <v>641161.2659624571</v>
+        <v>809080.717407753</v>
       </c>
       <c r="AF3" t="n">
         <v>8.709844467709748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>579969.7346144879</v>
+        <v>731863.1892902751</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.5722061777255</v>
+        <v>536.7880152774148</v>
       </c>
       <c r="AB4" t="n">
-        <v>579.5501791792615</v>
+        <v>734.4570439184433</v>
       </c>
       <c r="AC4" t="n">
-        <v>524.2387234821772</v>
+        <v>664.3614944638016</v>
       </c>
       <c r="AD4" t="n">
-        <v>423572.2061777256</v>
+        <v>536788.0152774148</v>
       </c>
       <c r="AE4" t="n">
-        <v>579550.1791792614</v>
+        <v>734457.0439184434</v>
       </c>
       <c r="AF4" t="n">
         <v>9.258451554312247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.39192708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>524238.7234821772</v>
+        <v>664361.4944638016</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>420.0690950050948</v>
+        <v>533.284904104784</v>
       </c>
       <c r="AB5" t="n">
-        <v>574.7570679265104</v>
+        <v>729.6639326656923</v>
       </c>
       <c r="AC5" t="n">
-        <v>519.9030600402148</v>
+        <v>660.0258310218392</v>
       </c>
       <c r="AD5" t="n">
-        <v>420069.0950050948</v>
+        <v>533284.904104784</v>
       </c>
       <c r="AE5" t="n">
-        <v>574757.0679265105</v>
+        <v>729663.9326656923</v>
       </c>
       <c r="AF5" t="n">
         <v>9.328316616887459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.21614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>519903.0600402148</v>
+        <v>660025.8310218392</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.2291022659447</v>
+        <v>1001.183999931363</v>
       </c>
       <c r="AB2" t="n">
-        <v>1134.587840726359</v>
+        <v>1369.864117826869</v>
       </c>
       <c r="AC2" t="n">
-        <v>1026.30436961147</v>
+        <v>1239.126209037836</v>
       </c>
       <c r="AD2" t="n">
-        <v>829229.1022659447</v>
+        <v>1001183.999931363</v>
       </c>
       <c r="AE2" t="n">
-        <v>1134587.840726359</v>
+        <v>1369864.117826869</v>
       </c>
       <c r="AF2" t="n">
         <v>5.578209076929291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.57682291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1026304.36961147</v>
+        <v>1239126.209037836</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>559.30572868501</v>
+        <v>683.4527322158941</v>
       </c>
       <c r="AB3" t="n">
-        <v>765.2667728141192</v>
+        <v>935.1301800243247</v>
       </c>
       <c r="AC3" t="n">
-        <v>692.2307860754003</v>
+        <v>845.8826681062532</v>
       </c>
       <c r="AD3" t="n">
-        <v>559305.72868501</v>
+        <v>683452.7322158942</v>
       </c>
       <c r="AE3" t="n">
-        <v>765266.7728141192</v>
+        <v>935130.1800243247</v>
       </c>
       <c r="AF3" t="n">
         <v>7.308549980718138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.38671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>692230.7860754003</v>
+        <v>845882.6681062531</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>474.551826053504</v>
+        <v>598.6978185545308</v>
       </c>
       <c r="AB4" t="n">
-        <v>649.3027441553995</v>
+        <v>819.1647680299508</v>
       </c>
       <c r="AC4" t="n">
-        <v>587.3342015553324</v>
+        <v>740.9848322741445</v>
       </c>
       <c r="AD4" t="n">
-        <v>474551.826053504</v>
+        <v>598697.8185545309</v>
       </c>
       <c r="AE4" t="n">
-        <v>649302.7441553995</v>
+        <v>819164.7680299508</v>
       </c>
       <c r="AF4" t="n">
         <v>8.05270617834142e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.95182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>587334.2015553324</v>
+        <v>740984.8322741445</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>455.8960854704877</v>
+        <v>570.4539756334689</v>
       </c>
       <c r="AB5" t="n">
-        <v>623.777136856529</v>
+        <v>780.5202961149445</v>
       </c>
       <c r="AC5" t="n">
-        <v>564.2447223916513</v>
+        <v>706.0285345208492</v>
       </c>
       <c r="AD5" t="n">
-        <v>455896.0854704877</v>
+        <v>570453.9756334688</v>
       </c>
       <c r="AE5" t="n">
-        <v>623777.1368565289</v>
+        <v>780520.2961149445</v>
       </c>
       <c r="AF5" t="n">
         <v>8.26362943180789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.33984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>564244.7223916512</v>
+        <v>706028.5345208492</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>432.6548943899003</v>
+        <v>547.2801043605858</v>
       </c>
       <c r="AB6" t="n">
-        <v>591.9775138910829</v>
+        <v>748.8127830803398</v>
       </c>
       <c r="AC6" t="n">
-        <v>535.4800108109762</v>
+        <v>677.3471420284933</v>
       </c>
       <c r="AD6" t="n">
-        <v>432654.8943899003</v>
+        <v>547280.1043605858</v>
       </c>
       <c r="AE6" t="n">
-        <v>591977.513891083</v>
+        <v>748812.7830803399</v>
       </c>
       <c r="AF6" t="n">
         <v>8.409379769877418e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.93619791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>535480.0108109761</v>
+        <v>677347.1420284933</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>433.965746500365</v>
+        <v>548.5909564710504</v>
       </c>
       <c r="AB7" t="n">
-        <v>593.7710795793342</v>
+        <v>750.6063487685913</v>
       </c>
       <c r="AC7" t="n">
-        <v>537.102401107226</v>
+        <v>678.9695323247432</v>
       </c>
       <c r="AD7" t="n">
-        <v>433965.746500365</v>
+        <v>548590.9564710504</v>
       </c>
       <c r="AE7" t="n">
-        <v>593771.0795793342</v>
+        <v>750606.3487685913</v>
       </c>
       <c r="AF7" t="n">
         <v>8.403751199911321e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.94921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>537102.401107226</v>
+        <v>678969.5323247432</v>
       </c>
     </row>
   </sheetData>
